--- a/baseEmer.xlsx
+++ b/baseEmer.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H458"/>
+  <dimension ref="A1:H657"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
       <selection activeCell="C408" sqref="C408"/>
@@ -19680,6 +19680,8364 @@
         </is>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>11:43:15.128576</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Иманалиева Алияшечка Мадылбековна</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Дежурный врач</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>12:30:47.376049</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Абдыкеева Гулнур Ишенбековна</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>НС-З 183899</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>Офис Кант</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2023-01-05</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>12:23:54.429933</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Мамырова Айнура Деуталиевна</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>НС-З 167280</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Офис Токмок</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2023-01-06</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>13:02:06.415227</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Султаева Назгуль</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2023-01-08</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>20:33:29.780152</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Кубанычбек кызы Майрам</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Дежурный врач</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>НС-З 178146</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Офис Новопавловка</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>12:51:42.400690</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Юлдашева Гульнара Исмаиловна</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Дежурный врач</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>НС-З 172053</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Офис Баткен</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>20:33:28.315944</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Маматконова Маъмурахон</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Дежурный врач</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>20:45:27.483340</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Рысбекова Зарина Рысбековна</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>12:35:34.045813</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Нуркамил кызы Чынара</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>НС-З 186060</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>Офис Отуз-Адыр</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>23:12:20.802538</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Аманкулова Эрмек Болотовна</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00057</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>08:04:42.999488</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Абдухаметов Айбек Алишерович</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>08:23:55.828869</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Сатимбаева Зуура Абдигуловна</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>НС-З 151630</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>Офис Каракуль</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>11:24:24.430387</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Никонов Артём Васильевич</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>12:14:04.612341</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Никонов Артём Васильевич</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>18:09:22.951123</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Бахтиёр уулу Мирлан</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>НС-З 001700</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Офис Кадамжай</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>18:45:20.677172</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Алишова  Гулсайра </t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>22:41:15.226578</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Иманалиева Алияшечка Мадылбековна</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>22:43:49.209555</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Нурбек Жениш</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>23:14:06.104614</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Чынгышева Айжан Болотбековна</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2023-01-15</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>11:53:41.251882</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Маматова Калыя</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2023-01-15</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>13:04:58.605974</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Дюшеева Гулжан Адамкеровна</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>НС-З 000951</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Офис Ананьево</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2023-01-15</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>15:33:27.480271</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Алишова  Гулсайра </t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2023-01-15</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>16:08:48.733569</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Калмаматова Чолпонай Мыйманжановна</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>НС-З 145721</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Офис Карасуу</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2023-01-15</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>16:54:05.705511</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Юлдашева Гульнара Исмаиловна</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>НС-З 172053</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Офис Баткен</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2023-01-15</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>21:01:38.317644</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Рысбекова Зарина Рысбековна</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>14:11:28.798158</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Султаева Назгуль</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>20:17:08.090387</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Турсунов Чынгыз Азизбекович</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>НС-З 003751</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>Офис Ананьево</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>21:09:13.656693</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Камчыбеков Ырысбек Адылбекович</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>НС-З 001276</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>Офис Кочкор-Ата</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>23:09:30.571270</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Конгайтиев Темирлан Абдыкалыкович</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00211</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>16:23:32.747186</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Соорова Диларам Акимбаевна</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>НС-З 000399</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Офис Кадамжай</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>10:45:37.279206</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Калилов Шерболот Паязович</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>НС-З 001830</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>Офис Кызыл-Кыя</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>12:34:51.463572</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Дежурный специалист АА</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Нурбек Жениш</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>13:20:59.064475</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Нурбек Жениш</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>21:00:39.158978</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Нурбек Жениш</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>21:42:04.794204</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Нурбек Жениш</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2023-01-22</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>10:26:19.756561</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Боркошева Урматай Борубаевна</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Дежурный врач</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>НС-З 001775</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>Офис Сулюкта</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2023-01-22</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>19:41:24.351275</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Усманова Феруза Хабибуллоевна</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>НС-З 172394</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>Офис Исфана</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>11:46:14.612916</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Худайбердиева Гульсарахон Исмаилжановна</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>НС-З 187567</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>Офис Кочкор-Ата</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>13:10:37.810404</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Кушубакова Калия</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>НС-З 001936</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Офис Беловодское </t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>19:12:04.443238</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Раимбердиева Зирек Исабековна</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Бактыбек Уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>19:18:53.834643</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>19:40:18.784496</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Усманова Феруза Хабибуллоевна</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>НС-З 172394</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>Офис Исфана</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>11:18:59.157202</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Муллабаева Минажатхан Абдулажановна</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>НС-З 001867</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>Офис Жалалабад</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>13:29:20.069171</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Мойдинов Носирбек Каримжонович</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>НС-З 004264</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>Офис Араван</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2023-01-25</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>12:39:30.355123</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Лукьянова Мария Владимировна</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>НС-З 183499</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>Офис Аламединский рынок</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2023-01-25</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>14:25:13.553374</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Кайдулатова Милана Ийманбаевна</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00179</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>12:24:07.984662</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Омурова Гульмира Токоевна</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>НС-З 145714</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>Офис Карасуу</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>18:01:48.507829</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нурсултан </t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>09:57:48.811963</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Исаева Багдагул Каныбековна</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>15:07:32.364399</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Холмахматова Гулбора Хамидуллаевна </t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>15:13:03.099643</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Усманова Феруза Хабибуллоевна</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>НС-З 172394</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>Офис Исфана</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>16:35:08.316995</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Толомушова Суусар Борончиевна</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>20:17:28.972242</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>20:20:10.843084</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нурсултан </t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>20:22:17.220683</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>23:53:04.684856</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Курманбеков Кыялбек Рашидович</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00222</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>14:48:16.221879</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Усманалиев Махмуджан </t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>15:08:04.808242</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Нурманбетова Назира Рыскуловна</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00279</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>15:51:57.335656</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Омурзакова Дилбар</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>16:36:03.826390</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Молдобаев Тилек Молдонбекович</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>12:29:51.176984</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Шаршебаев УЛУКБЕК МАРАТОВИЧ </t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>13:34:21.753726</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Худайбердиева Гульсарахон Исмаилжановна</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>Дежурный врач</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>НС-З 187567</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>Офис Кочкор-Ата</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>14:22:08.467812</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Худайбердиева Гульсарахон Исмаилжановна</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>НС-З 187567</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Офис Кочкор-Ата</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>14:52:20.938244</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Шерматова Айтбу</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>15:39:23.113480</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Холмахматова Гулбора Хамидуллаевна </t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>16:09:29.075462</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Айтыкеева Керез Кубатбековна</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>17:10:55.222677</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>18:17:54.350117</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нурсултан </t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>19:13:33.118311</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Кебеков Толкунбек Бегалиевич</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00202</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>19:35:36.062646</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Раимбердиева Зирек Исабековна</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Калыкулова Буузайда Абдумаликовна</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>21:05:31.263709</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Чекиева Айдай Болотбековна </t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>21:19:40.827672</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кунтуганова Дюшакан Мамбетовна </t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>21:43:29.436051</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Абдурахманова</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>11:08:40.596945</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Шералиева Нурсулуу Умаралиевна</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00420</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>12:02:11.771612</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бапиев Тыныбек Абжапарович </t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>12:19:50.479346</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Рысбекова Зарина Рысбековна</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>12:38:15.269439</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Исираилова Наргиза Суранбевна</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>13:32:30.952708</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Турусбеков Азамат Кубанычбекович</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00385</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>15:40:19.707011</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Абдашим уулу Акылбек</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>НС-З 004014</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>Офис Узген</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>15:42:28.757317</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Кожоева Зарина Акылбековна</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00210</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>19:26:29.453647</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Орозматова Салтанат</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>21:11:49.516927</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Гапырова Гульзада Абсаматовна</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>21:41:55.614456</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Шералиева Нурсулуу Умаралиевна</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00420</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>09:39:26.305920</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Айылчинова Жанара Садыровна</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>10:13:17.138833</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нурсултан </t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>10:23:45.255810</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Султаева Назгуль</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>10:32:17.953913</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>Гапырова Гульзада Абсаматовна</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>Дежурный врач</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>11:25:49.737918</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Гапырова Гульзада Абсаматовна</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>13:41:08.496313</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ниязова Жаннатай Аманкуловна </t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>15:17:58.858324</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Токтосунова Анийса Бегалиевна</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>16:09:49.446353</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Исираилова Наргиза Суранбевна</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>19:40:46.712951</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Тамара Сатарова Абдукахаровна</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>23:01:32.556048</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ниязова Жаннатай Аманкуловна </t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>23:21:39.167842</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ниязова Жаннатай Аманкуловна </t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>10:02:41.046498</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Заирова Нургул Борубаевна</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00154</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>10:05:09.204685</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Кайбылдаев Озгоруш Калыбекович</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00178</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>10:19:30.004434</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>Молдокулов Калысбек Молдокулович</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00257</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>10:25:41.874310</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Сабырова Асель Жаныбековна</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00313</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>10:26:55.206478</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Сайнидинова Чолпон Асыранкуловна</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00320</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>10:28:06.146639</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Ормонова Жылдызкан Абдиманнаповна</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00286</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>10:39:00.506510</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Кимсанов Заирбек Замирбекович</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00208</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>11:03:05.359451</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Стамахунова Фарида Капарбаевна</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00344</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>11:06:36.569261</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>Тургунбаев Адилет Тургунбаевич</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00380</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>11:08:20.491535</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Карабаева Мастура Назаркуловна </t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>11:08:37.938353</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Темиржанов Эркин Анаркулович</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00366</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>11:17:04.650836</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Немат кызы Венера</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>11:40:55.881289</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Ормонова Жылдызкан Абдиманнаповна</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00286</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>11:49:13.828116</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Салимова Давлатпошо Абдурахманжановна</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00323</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>12:21:28.415559</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Кимсанов Заирбек Замирбекович</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00208</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>12:39:12.131207</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Сатарова Айпери Кылычбековна</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00336</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>13:51:08.373465</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Сатарова Айпери Кылычбековна</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00336</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>13:54:33.256150</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Сатарова Айпери Кылычбековна</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00336</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>14:06:34.062185</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Матаева Чолпон Асановна</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>17:02:22.296547</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Карабаева Мастура Назаркуловна </t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>18:08:27.324997</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Абдираимов Пардавай Назырович</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00007</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>18:15:36.056319</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Субанова Айсулуу</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>18:40:55.522989</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Кахарова Чынара Кахаровна</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>18:50:02.781419</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Кадырбаева Кумушай Исмановна</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>20:22:35.213822</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Кулуев Абдыманап Касымович</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>21:20:33.370064</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бекиев Абдымомун </t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>22:03:12.338251</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Темирбаева Орозгул Асаналиевна</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>00:33:15.329740</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нариева Айдана Эргешбаевна </t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>00:36:31.746984</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Мамышева Асель Бектурсуновна</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>09:30:06.701835</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Сопиев Адилет Акаевич</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>09:56:15.928943</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>Чондуев Айдакан Джамадиновна</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>10:25:44.233103</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Каримжанова МАВЛУДА Арибжановна</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>10:27:14.037602</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Избасарова </t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>10:54:51.134984</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Караева Дилназа Абдисаматовна </t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>10:56:02.538072</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Муканбетова Мээрим Акжоловна</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>11:28:37.604707</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Каргабаев Нурлан Басылбекович</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00193</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>11:53:21.009483</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Тургуналиева Сайкал Узбековна</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>НС-З 156896</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>Офис Аламединский рынок</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>12:24:59.924597</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Кыпчакбаева Гулнара Джуматаевна</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>12:48:42.899498</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Атабекова Салтанат Кизаевна</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>12:52:28.185405</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Жолдошев Бактыбек Мамасыдыкович</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00146</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>13:04:30.000166</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Дадашева</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>13:40:19.658543</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Аман кызы Одина</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>13:48:23.073495</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Данияр кызы Майрам </t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>13:49:36.587019</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Жолдошев Бактыбек Мамасыдыкович</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00146</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>13:51:53.345657</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Джумалиева Чынар Кадыровна</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>НС-З 176846</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>Офис Кант</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>13:54:46.584129</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Сабирова Дуруя Мелибаевна</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>НС-З 001902</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>Офис Кадамжай</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>14:17:10.088803</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Абдираимова Махлие Рустамжановна </t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>14:53:30.073742</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Шакиев Курсантбек Тагайбекович</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00413</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>15:29:07.329622</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Абдыралиева Нургул Чоробековна</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00018</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>15:43:40.507579</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Мадимарова Нуриза Ибрагимовна</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>16:26:38.454337</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Лилии</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>16:55:35.657616</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Буланбаева Умут Дюшеновна</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>22:17:12.716482</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Апсатарова </t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>22:43:01.553533</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Таалайбек Уулу Нуржигит</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>00:50:32.232211</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Айдаралиев Темирбек Мустапакулович </t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>10:04:06.285160</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Джунусова Зарылкан Байгазиевна</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>Дежурный врач</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>10:59:57.493414</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Субанова Айсулуу</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>11:22:03.924173</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Субанова Айсулуу</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>Дежурный врач</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>11:45:08.887618</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Айдаралиев Темирбек Мустапакулович </t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>13:47:00.307116</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Базаркул кызы Элиза</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>14:32:37.582111</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Иманалиева Майрамкан </t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>15:19:32.597762</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Айдаралиев Темирбек Мустапакулович </t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>15:35:23.410059</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Русланова Айпери Руслановна</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Айылчиева Нургул Алтынбековна</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>НС-З 181579</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Офис Талас </t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>16:00:18.283926</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Кадырова Жасынай</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>16:17:17.084501</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Кадырова Аширкан Орунбаевна</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>16:22:42.073558</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Асымбекова Мыскал Бердибековна </t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>16:26:55.324677</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Узакова Айзада Камчыбековна</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>16:51:03.800264</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Акматова Перизат Акировна</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>17:22:48.726619</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Таштанбаева Гулсад Жанышбековна</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>НС-З 191754</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>Офис Аламединский рынок</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>17:28:48.779017</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Нургазыев Улан Шергазиевич</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>НС-З 002348</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Офис Кара-Балта </t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>17:53:40.989935</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>джолдошев билал шералиевич</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>17:58:35.362800</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Канатбек Кызы Айгерим</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>18:04:07.860149</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Садыбакасов Батырбек Жаныбекович</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>18:34:37.559448</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Алайбек Кызы Элнура</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>22:05:38.651079</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Аманбекова Бермет Акимовна</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>23:37:37.978555</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кубанычева Кундуз </t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>23:55:36.863748</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Таштемиров Айбек Абылкасымович</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00363</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>06:51:27.430287</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Мамажунусова Зарипа</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>08:19:28.737981</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Жолдошова Жамийла Абжапаровна</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>НС-З 157178</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>Офис Араван</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>12:11:43.720936</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Каипова </t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>14:41:44.764019</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Токтосартов Марс</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>15:04:02.242857</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Кулчунова Жыпаркул Бакынбаевна</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>15:12:08.555597</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Талантбек кызы Айзада </t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00360</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>15:26:26.160902</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нурсултан </t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>15:33:53.548604</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Жумабаев Ыктыяр Сармырзаевич</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>15:58:39.857095</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Разакова Таалай Сайпиллаевна</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>16:20:57.589661</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>Асанова Луиза Замирбековна</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>НС-З 159687</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>Офис Кызыл-Кыя</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>16:27:24.736979</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Бекболеев Орозбек Набижанович</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>НС-З 002722</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Офис Токтогул</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>16:38:52.127661</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Салилбекова Миргул Салилбековна</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>НС-З 000890</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>Офис Кызыладыр</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>16:43:17.978579</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Алижанов Адилет Алижанович</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>16:56:53.628712</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Сулайманов Адилет Бейшенбаевич</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>17:43:17.124579</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Узенова Миржан </t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>18:19:43.106310</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Ишен кызы Альбина</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>НС-З 004340</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>Офис Ананьево</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>18:25:56.098850</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Таалайбек уулу Садирбек</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>НС-З 187489</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>Офис Кочкор-Ата</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>18:30:43.391865</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Караева Амида Энверовна</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>НС-З 183896</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>Офис Кант</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>18:52:58.896417</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Зульфибаева Айзат</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>Турсунов Чынгыз Азизбекович</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>НС-З 003751</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>Офис Ананьево</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>19:12:37.459994</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нурсултан </t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>19:43:59.431408</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>Акматова Гулзат Акировна</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00040</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>20:01:15.052500</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>Абдурахмонова Муножат Исмоиловна</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>НС-З 185508</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>Офис Исфана</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>20:07:32.343625</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>Мафтуна</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>20:57:13.770057</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>Туратбеков Артур</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>21:08:33.813001</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>Жусупов  Усон</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>21:21:26.513410</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бакеева Айкокул </t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>22:02:45.091232</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Сезим</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>22:41:33.116967</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Дежурный специалист А</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Сапарова Элиза Туратовна</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>Дежурный врач с назначением лечения</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1">
     <sortState ref="A2:H446">
